--- a/System/pcb/mini/mini_rev1/aqp_mini_rev1_CPL1.xlsx
+++ b/System/pcb/mini/mini_rev1/aqp_mini_rev1_CPL1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\AquariusPlus\aquarius-plus\System\pcb\mini\mini_rev1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EED007-4BE7-4D08-90F5-5F7E862348E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7011313E-AD18-4066-936A-88554E975CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19260" yWindow="2640" windowWidth="8715" windowHeight="11295" xr2:uid="{A930CAE8-4800-4FAC-8503-0E4DB5A92D49}"/>
+    <workbookView xWindow="15225" yWindow="3360" windowWidth="12360" windowHeight="11295" xr2:uid="{A930CAE8-4800-4FAC-8503-0E4DB5A92D49}"/>
   </bookViews>
   <sheets>
     <sheet name="aquarius-plus-top-pos" sheetId="1" r:id="rId1"/>
@@ -1226,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8230DED-298F-4EB6-8D5C-36A019B24DDF}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
